--- a/masks/code/ResonatorArray_4in.xlsx
+++ b/masks/code/ResonatorArray_4in.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Patches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Shift_Calculator" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patches" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shift_Calculator" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -714,14 +714,14 @@
     <col customWidth="1" max="1" min="1" width="16"/>
     <col customWidth="1" max="2" min="2" width="11"/>
     <col customWidth="1" max="3" min="3" width="29"/>
-    <col customWidth="1" max="4" min="4" width="8"/>
+    <col customWidth="1" max="4" min="4" width="21"/>
     <col customWidth="1" max="5" min="5" width="8"/>
     <col customWidth="1" max="6" min="6" width="6"/>
     <col customWidth="1" max="7" min="7" width="7"/>
     <col customWidth="1" max="8" min="8" width="21"/>
     <col customWidth="1" max="9" min="9" width="21"/>
     <col customWidth="1" max="10" min="10" width="22"/>
-    <col customWidth="1" max="11" min="11" width="21"/>
+    <col customWidth="1" max="11" min="11" width="22"/>
     <col customWidth="1" max="12" min="12" width="6"/>
     <col customWidth="1" max="13" min="13" width="20"/>
     <col customWidth="1" max="14" min="14" width="8"/>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>-2.875</v>
+        <v>-2.83125</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>-2.525</v>
+        <v>-2.48125</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-2.775</v>
+        <v>-2.73125</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0.5</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.6500000000000001</v>
+        <v>0.8575000000000002</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1.55</v>
+        <v>1.255</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.1</v>
+        <v>-0.0975</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>-0.4</v>
+        <v>-0.2025</v>
       </c>
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n">
@@ -1266,16 +1266,16 @@
         <v>0.4</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>11.6</v>
+        <v>11.41</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>11.2</v>
+        <v>11.39</v>
       </c>
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n">
@@ -1338,16 +1338,16 @@
         <v>0.8</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>4</v>
+        <v>3.82</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>1.05</v>
+        <v>0.87</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n">
@@ -1410,16 +1410,16 @@
         <v>0.8</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>4</v>
+        <v>3.82</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>1.05</v>
+        <v>0.87</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n">
@@ -1482,16 +1482,16 @@
         <v>0.4</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>-3.2</v>
+        <v>-3</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>10.5</v>
+        <v>10.31</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>10.1</v>
+        <v>10.29</v>
       </c>
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n">
@@ -1554,16 +1554,16 @@
         <v>0.4</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>-3.2</v>
+        <v>-3</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>10.5</v>
+        <v>10.31</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>10.1</v>
+        <v>10.29</v>
       </c>
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n">
@@ -1626,16 +1626,16 @@
         <v>22.4</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>-8.949999999999999</v>
+        <v>-8.76</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>-8.550000000000001</v>
+        <v>-8.74</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>11.2</v>
+        <v>11.014</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>-11.2</v>
+        <v>-11.014</v>
       </c>
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n">
@@ -1698,16 +1698,16 @@
         <v>22.4</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>-8.949999999999999</v>
+        <v>-8.76</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>-8.550000000000001</v>
+        <v>-8.74</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>11.2</v>
+        <v>11.014</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>-11.2</v>
+        <v>-11.014</v>
       </c>
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n">
@@ -1770,16 +1770,16 @@
         <v>2.1</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>8.600000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>1.05</v>
+        <v>0.959</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>-1.05</v>
+        <v>-0.75</v>
       </c>
       <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n">
@@ -1842,16 +1842,16 @@
         <v>11.4</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>-9.549999999999999</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>-9.15</v>
+        <v>-9.34</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>5.7</v>
+        <v>5.51</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>-5.7</v>
+        <v>-5.51</v>
       </c>
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n">
@@ -1914,16 +1914,16 @@
         <v>11.4</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>-9.549999999999999</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>-9.15</v>
+        <v>-9.34</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>5.7</v>
+        <v>5.51</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>-5.7</v>
+        <v>-5.51</v>
       </c>
       <c r="L25" s="1" t="n"/>
       <c r="M25" s="1" t="n">
@@ -2130,16 +2130,16 @@
         <v>0.4</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1.55</v>
+        <v>1.748</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1.95</v>
+        <v>1.752</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.402</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.2</v>
+        <v>0.398</v>
       </c>
       <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n">
@@ -2202,16 +2202,16 @@
         <v>1.8</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>5.5</v>
+        <v>5.675</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>8.6</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>-1.25</v>
+        <v>-1.45</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>-3.05</v>
+        <v>-2.85</v>
       </c>
       <c r="L29" s="1" t="n"/>
       <c r="M29" s="1" t="n">
@@ -2274,16 +2274,16 @@
         <v>0.5</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>-7.7</v>
+        <v>-7.5</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>12.8</v>
+        <v>12.6125</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>12.3</v>
+        <v>12.4875</v>
       </c>
       <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n">
@@ -2346,16 +2346,16 @@
         <v>15.4</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>-10.85</v>
+        <v>-10.6625</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>-10.35</v>
+        <v>-10.5375</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>-7.7</v>
+        <v>-7.5</v>
       </c>
       <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n">
@@ -2418,16 +2418,16 @@
         <v>1.5</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>-2.75</v>
+        <v>-2.405</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>-1.295</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>9.901</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.498999999999999</v>
       </c>
       <c r="L32" s="1" t="n"/>
       <c r="M32" s="1" t="n">
@@ -2490,16 +2490,16 @@
         <v>1.5</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>-6.45</v>
+        <v>-6.105</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>-4.995</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>8.4</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>6.9</v>
+        <v>6.949000000000001</v>
       </c>
       <c r="L33" s="1" t="n"/>
       <c r="M33" s="1" t="n">
@@ -2562,16 +2562,16 @@
         <v>1.5</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-4.255</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>-2.8</v>
+        <v>-3.145</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>8.4</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>6.9</v>
+        <v>6.949000000000001</v>
       </c>
       <c r="L34" s="1" t="n"/>
       <c r="M34" s="1" t="n">
@@ -2634,16 +2634,16 @@
         <v>1.5</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>-2.75</v>
+        <v>-2.405</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>-1.295</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>8.4</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>6.9</v>
+        <v>6.949000000000001</v>
       </c>
       <c r="L35" s="1" t="n"/>
       <c r="M35" s="1" t="n">
@@ -2706,16 +2706,16 @@
         <v>1.5</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>-0.9</v>
+        <v>-0.555</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.9</v>
+        <v>0.555</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>8.4</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>6.9</v>
+        <v>6.949000000000001</v>
       </c>
       <c r="L36" s="1" t="n"/>
       <c r="M36" s="1" t="n">
@@ -2778,16 +2778,16 @@
         <v>1.5</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>1.295</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>2.75</v>
+        <v>2.405</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>8.4</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>6.9</v>
+        <v>6.949000000000001</v>
       </c>
       <c r="L37" s="1" t="n"/>
       <c r="M37" s="1" t="n">
@@ -2850,16 +2850,16 @@
         <v>1.5</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>2.8</v>
+        <v>3.145</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>4.255</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>8.4</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>6.9</v>
+        <v>6.949000000000001</v>
       </c>
       <c r="L38" s="1" t="n"/>
       <c r="M38" s="1" t="n">
@@ -2922,16 +2922,16 @@
         <v>1.5</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>-6.45</v>
+        <v>-6.105</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>-4.995</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>6.85</v>
+        <v>6.800999999999999</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>5.35</v>
+        <v>5.399</v>
       </c>
       <c r="L39" s="1" t="n"/>
       <c r="M39" s="1" t="n">
@@ -2994,16 +2994,16 @@
         <v>1.5</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-4.255</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>-2.8</v>
+        <v>-3.145</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>6.85</v>
+        <v>6.800999999999999</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>5.35</v>
+        <v>5.399</v>
       </c>
       <c r="L40" s="1" t="n"/>
       <c r="M40" s="1" t="n">
@@ -3066,16 +3066,16 @@
         <v>1.5</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>2.8</v>
+        <v>3.145</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>4.255</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>6.85</v>
+        <v>6.800999999999999</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>5.35</v>
+        <v>5.399</v>
       </c>
       <c r="L41" s="1" t="n"/>
       <c r="M41" s="1" t="n">
@@ -3138,16 +3138,16 @@
         <v>1.5</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>-6.45</v>
+        <v>-6.105</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>-4.995</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>5.3</v>
+        <v>5.250999999999999</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>3.8</v>
+        <v>3.849</v>
       </c>
       <c r="L42" s="1" t="n"/>
       <c r="M42" s="1" t="n">
@@ -3210,16 +3210,16 @@
         <v>1.5</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>2.8</v>
+        <v>3.145</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>4.255</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>5.3</v>
+        <v>5.250999999999999</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>3.8</v>
+        <v>3.849</v>
       </c>
       <c r="L43" s="1" t="n"/>
       <c r="M43" s="1" t="n">
@@ -3282,16 +3282,16 @@
         <v>1.5</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>-6.45</v>
+        <v>-6.105</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>-4.995</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>3.75</v>
+        <v>3.701</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>2.25</v>
+        <v>2.299</v>
       </c>
       <c r="L44" s="1" t="n"/>
       <c r="M44" s="1" t="n">
@@ -3354,16 +3354,16 @@
         <v>1.5</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>-0.9</v>
+        <v>-0.555</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.9</v>
+        <v>0.555</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>3.75</v>
+        <v>3.701</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>2.25</v>
+        <v>2.299</v>
       </c>
       <c r="L45" s="1" t="n"/>
       <c r="M45" s="1" t="n">
@@ -3426,16 +3426,16 @@
         <v>1.5</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>1.295</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>2.75</v>
+        <v>2.405</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>3.75</v>
+        <v>3.701</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>2.25</v>
+        <v>2.299</v>
       </c>
       <c r="L46" s="1" t="n"/>
       <c r="M46" s="1" t="n">
@@ -3498,16 +3498,16 @@
         <v>1.5</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>2.8</v>
+        <v>3.145</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>4.255</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>3.75</v>
+        <v>3.701</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>2.25</v>
+        <v>2.299</v>
       </c>
       <c r="L47" s="1" t="n"/>
       <c r="M47" s="1" t="n">
@@ -3570,16 +3570,16 @@
         <v>1.5</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>-1.8</v>
+        <v>-1.455</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0</v>
+        <v>-0.345</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>-0.7</v>
+        <v>-0.749</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>-2.2</v>
+        <v>-2.151</v>
       </c>
       <c r="L48" s="1" t="n"/>
       <c r="M48" s="1" t="n">
@@ -3642,16 +3642,16 @@
         <v>1.5</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0</v>
+        <v>0.345</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>1.8</v>
+        <v>1.455</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>-0.7</v>
+        <v>-0.749</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>-2.2</v>
+        <v>-2.151</v>
       </c>
       <c r="L49" s="1" t="n"/>
       <c r="M49" s="1" t="n">
@@ -3714,16 +3714,16 @@
         <v>1.5</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>-1.8</v>
+        <v>-1.455</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>0</v>
+        <v>-0.345</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>2.2</v>
+        <v>2.151</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>0.7</v>
+        <v>0.749</v>
       </c>
       <c r="L50" s="1" t="n"/>
       <c r="M50" s="1" t="n">
@@ -3786,16 +3786,16 @@
         <v>1.5</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>0</v>
+        <v>0.345</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>1.8</v>
+        <v>1.455</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>2.2</v>
+        <v>2.151</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>0.7</v>
+        <v>0.749</v>
       </c>
       <c r="L51" s="1" t="n"/>
       <c r="M51" s="1" t="n">
@@ -3858,16 +3858,16 @@
         <v>1.5</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>-6.45</v>
+        <v>-6.105</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>-4.995</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.498999999999999</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-9.901</v>
       </c>
       <c r="L52" s="1" t="n"/>
       <c r="M52" s="1" t="n">
@@ -3930,16 +3930,16 @@
         <v>1.5</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-4.255</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>-2.8</v>
+        <v>-3.145</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.498999999999999</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-9.901</v>
       </c>
       <c r="L53" s="1" t="n"/>
       <c r="M53" s="1" t="n">
@@ -4002,16 +4002,16 @@
         <v>1.5</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>-2.75</v>
+        <v>-2.405</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>-1.295</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.498999999999999</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-9.901</v>
       </c>
       <c r="L54" s="1" t="n"/>
       <c r="M54" s="1" t="n">
@@ -4074,16 +4074,16 @@
         <v>1.5</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>2.8</v>
+        <v>3.145</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>4.255</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.498999999999999</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-9.901</v>
       </c>
       <c r="L55" s="1" t="n"/>
       <c r="M55" s="1" t="n">
@@ -4146,16 +4146,16 @@
         <v>1.5</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-6.45</v>
+        <v>-6.105</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>-4.995</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-6.9</v>
+        <v>-6.949000000000001</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-8.4</v>
+        <v>-8.351000000000001</v>
       </c>
       <c r="L56" s="1" t="n"/>
       <c r="M56" s="1" t="n">
@@ -4218,16 +4218,16 @@
         <v>1.5</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>2.8</v>
+        <v>3.145</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>4.255</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>-6.9</v>
+        <v>-6.949000000000001</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>-8.4</v>
+        <v>-8.351000000000001</v>
       </c>
       <c r="L57" s="1" t="n"/>
       <c r="M57" s="1" t="n">
@@ -4290,16 +4290,16 @@
         <v>1.5</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>-6.45</v>
+        <v>-6.105</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>-4.995</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>-5.35</v>
+        <v>-5.399</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>-6.85</v>
+        <v>-6.800999999999999</v>
       </c>
       <c r="L58" s="1" t="n"/>
       <c r="M58" s="1" t="n">
@@ -4362,16 +4362,16 @@
         <v>1.5</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>1.295</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>2.75</v>
+        <v>2.405</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>-5.35</v>
+        <v>-5.399</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>-6.85</v>
+        <v>-6.800999999999999</v>
       </c>
       <c r="L59" s="1" t="n"/>
       <c r="M59" s="1" t="n">
@@ -4434,16 +4434,16 @@
         <v>1.5</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>2.8</v>
+        <v>3.145</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>4.255</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>-5.35</v>
+        <v>-5.399</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>-6.85</v>
+        <v>-6.800999999999999</v>
       </c>
       <c r="L60" s="1" t="n"/>
       <c r="M60" s="1" t="n">
@@ -4506,16 +4506,16 @@
         <v>1.5</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>-6.45</v>
+        <v>-6.105</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>-4.995</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>-3.8</v>
+        <v>-3.849</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>-5.3</v>
+        <v>-5.250999999999999</v>
       </c>
       <c r="L61" s="1" t="n"/>
       <c r="M61" s="1" t="n">
@@ -4578,16 +4578,16 @@
         <v>1.5</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-4.255</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>-2.8</v>
+        <v>-3.145</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>-3.8</v>
+        <v>-3.849</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>-5.3</v>
+        <v>-5.250999999999999</v>
       </c>
       <c r="L62" s="1" t="n"/>
       <c r="M62" s="1" t="n">
@@ -4650,16 +4650,16 @@
         <v>1.5</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>-2.75</v>
+        <v>-2.405</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>-1.295</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>-3.8</v>
+        <v>-3.849</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>-5.3</v>
+        <v>-5.250999999999999</v>
       </c>
       <c r="L63" s="1" t="n"/>
       <c r="M63" s="1" t="n">
@@ -4722,16 +4722,16 @@
         <v>1.5</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>-0.9</v>
+        <v>-0.555</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>0.9</v>
+        <v>0.555</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>-3.8</v>
+        <v>-3.849</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>-5.3</v>
+        <v>-5.250999999999999</v>
       </c>
       <c r="L64" s="1" t="n"/>
       <c r="M64" s="1" t="n">
@@ -4794,16 +4794,16 @@
         <v>1.5</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>1.295</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>2.75</v>
+        <v>2.405</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>-3.8</v>
+        <v>-3.849</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>-5.3</v>
+        <v>-5.250999999999999</v>
       </c>
       <c r="L65" s="1" t="n"/>
       <c r="M65" s="1" t="n">
@@ -4866,16 +4866,16 @@
         <v>1.5</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>2.8</v>
+        <v>3.145</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>4.255</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>-3.8</v>
+        <v>-3.849</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>-5.3</v>
+        <v>-5.250999999999999</v>
       </c>
       <c r="L66" s="1" t="n"/>
       <c r="M66" s="1" t="n">
@@ -4938,16 +4938,16 @@
         <v>1.5</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>-0.9</v>
+        <v>-0.555</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>0.9</v>
+        <v>0.555</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>-2.25</v>
+        <v>-2.299</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>-3.75</v>
+        <v>-3.701</v>
       </c>
       <c r="L67" s="1" t="n"/>
       <c r="M67" s="1" t="n">
@@ -5010,16 +5010,16 @@
         <v>1.3</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>-1.85</v>
+        <v>-1.703</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>-0.65</v>
+        <v>-0.7969999999999999</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>0.65</v>
+        <v>0.421</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>-0.65</v>
+        <v>-0.421</v>
       </c>
       <c r="L68" s="1" t="n"/>
       <c r="M68" s="1" t="n">
@@ -5082,16 +5082,16 @@
         <v>0.5</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>0.65</v>
+        <v>0.838</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>1.35</v>
+        <v>1.163</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>0.65</v>
+        <v>0.4635</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>0.15</v>
+        <v>0.3365</v>
       </c>
       <c r="L69" s="1" t="n"/>
       <c r="M69" s="1" t="n">
@@ -5154,16 +5154,16 @@
         <v>1.3</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>-0.6</v>
+        <v>-0.404</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>0.6</v>
+        <v>0.404</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>0.65</v>
+        <v>0.453</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>-0.65</v>
+        <v>-0.453</v>
       </c>
       <c r="L70" s="1" t="n"/>
       <c r="M70" s="1" t="n">
@@ -5226,16 +5226,16 @@
         <v>0.9</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.25</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>-10.8</v>
+        <v>-11</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>-11.7</v>
+        <v>-11.5</v>
       </c>
       <c r="L71" s="1" t="n"/>
       <c r="M71" s="1" t="n">
@@ -5298,16 +5298,16 @@
         <v>16.9</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.25</v>
       </c>
       <c r="L72" s="1" t="n"/>
       <c r="M72" s="1" t="n">
@@ -5370,16 +5370,16 @@
         <v>0.8</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>0.05000000000000004</v>
+        <v>-0.15</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>-0.75</v>
+        <v>-0.55</v>
       </c>
       <c r="L73" s="1" t="n"/>
       <c r="M73" s="1" t="n">
@@ -5442,16 +5442,16 @@
         <v>0.8</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>0.05000000000000004</v>
+        <v>-0.15</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>-0.75</v>
+        <v>-0.55</v>
       </c>
       <c r="L74" s="1" t="n"/>
       <c r="M74" s="1" t="n">
@@ -5514,16 +5514,16 @@
         <v>0.8</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>2.6</v>
+        <v>2.796</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>3</v>
+        <v>2.804</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>1.05</v>
+        <v>0.853</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>0.25</v>
+        <v>0.447</v>
       </c>
       <c r="L75" s="1" t="n"/>
       <c r="M75" s="1" t="n">
@@ -5586,16 +5586,16 @@
         <v>0.6</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>2.6</v>
+        <v>2.796</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>3</v>
+        <v>2.804</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>0.04999999999999999</v>
+        <v>-0.141</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>-0.55</v>
+        <v>-0.359</v>
       </c>
       <c r="L76" s="1" t="n"/>
       <c r="M76" s="1" t="n">
@@ -5658,16 +5658,16 @@
         <v>0.4</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>12.2</v>
+        <v>12.004</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>11.8</v>
+        <v>11.996</v>
       </c>
       <c r="L77" s="1" t="n"/>
       <c r="M77" s="1" t="n">
@@ -5730,16 +5730,16 @@
         <v>0.4</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>-3.2</v>
+        <v>-3</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>11</v>
+        <v>10.804</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>10.6</v>
+        <v>10.796</v>
       </c>
       <c r="L78" s="1" t="n"/>
       <c r="M78" s="1" t="n">
@@ -5802,16 +5802,16 @@
         <v>0.4</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>-3.2</v>
+        <v>-3</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>11</v>
+        <v>10.804</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>10.6</v>
+        <v>10.796</v>
       </c>
       <c r="L79" s="1" t="n"/>
       <c r="M79" s="1" t="n">
@@ -5874,16 +5874,16 @@
         <v>22.4</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>-8.35</v>
+        <v>-8.154</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>-7.95</v>
+        <v>-8.146000000000001</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>12</v>
+        <v>11.808</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>-10.4</v>
+        <v>-10.208</v>
       </c>
       <c r="L80" s="1" t="n"/>
       <c r="M80" s="1" t="n">
@@ -5946,16 +5946,16 @@
         <v>22.4</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>-8.35</v>
+        <v>-8.154</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>-7.95</v>
+        <v>-8.146000000000001</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>12</v>
+        <v>11.808</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>-10.4</v>
+        <v>-10.208</v>
       </c>
       <c r="L81" s="1" t="n"/>
       <c r="M81" s="1" t="n">
@@ -6018,16 +6018,16 @@
         <v>11.4</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>-10.15</v>
+        <v>-9.953999999999999</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>-9.75</v>
+        <v>-9.946</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>5.7</v>
+        <v>5.504</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>-5.7</v>
+        <v>-5.504</v>
       </c>
       <c r="L82" s="1" t="n"/>
       <c r="M82" s="1" t="n">
@@ -6090,16 +6090,16 @@
         <v>11.4</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>-10.15</v>
+        <v>-9.953999999999999</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>-9.75</v>
+        <v>-9.946</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>5.7</v>
+        <v>5.504</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>-5.7</v>
+        <v>-5.504</v>
       </c>
       <c r="L83" s="1" t="n"/>
       <c r="M83" s="1" t="n">
